--- a/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st04.xlsx
+++ b/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st04.xlsx
@@ -4452,7 +4452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="힐데가르트"]  ……라이타니아의 캐스터들도 꽤 굉장해 보여. 안젤리카 언니도 수료 이후 라이타니아에 갔었지. 음악 아카데미에 들어갔다던가……?
+    <t xml:space="preserve">[name="힐데가르트"]  ……라이타니엔의 캐스터들도 꽤 굉장해 보여. 안젤리카 언니도 수료 이후 라이타니엔에 갔었지. 음악 아카데미에 들어갔다던가……?
 </t>
   </si>
   <si>
@@ -4704,7 +4704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="힐데가르트"]  ……그러던 어느 날, 라이타니아의 한 마을에서 졸부 하나가 찾아왔어요.
+    <t xml:space="preserve">[name="힐데가르트"]  ……그러던 어느 날, 라이타니엔의 한 마을에서 졸부 하나가 찾아왔어요.
 </t>
   </si>
   <si>
